--- a/RunManager.xlsx
+++ b/RunManager.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Protractor_Framework_Changes\Protractor_Framework_Changes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/installaccess/Documents/GitHub/JavaScript/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -30,58 +30,58 @@
     <t>../jasmine_POM/tests/AdditionTest.js</t>
   </si>
   <si>
+    <t>../jasmine_POM/tests/SubtractionTest.js</t>
+  </si>
+  <si>
+    <t>../jasmine_POM/tests/MultiplicationTest.js</t>
+  </si>
+  <si>
+    <t>../jasmine_POM/tests/DivisionTest.js</t>
+  </si>
+  <si>
+    <t>../cucumber_POM/features/Addition.feature</t>
+  </si>
+  <si>
+    <t>../cucumber_POM/features/Subtraction.feature</t>
+  </si>
+  <si>
+    <t>../cucumber_POM/features/Multiplication.feature</t>
+  </si>
+  <si>
+    <t>../cucumber_POM/features/Division.feature</t>
+  </si>
+  <si>
+    <t>../cucumber_POM/features/Features/Login.feature</t>
+  </si>
+  <si>
+    <t>../cucumber_POM/features/Registration.feature</t>
+  </si>
+  <si>
+    <t>../cucumber_POM/features/Features/Payment.feature</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>../cucumber_POM/features/Features/ContactUS.feature</t>
+  </si>
+  <si>
+    <t>../cucumber_POM/features/Features/ViewBill.feature</t>
+  </si>
+  <si>
+    <t>../cucumber_POM/features/Features/SMR.feature</t>
+  </si>
+  <si>
+    <t>../cucumber_POM/features/Features/ASMR.feature</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>../jasmine_POM/tests/SubtractionTest.js</t>
-  </si>
-  <si>
-    <t>../jasmine_POM/tests/MultiplicationTest.js</t>
-  </si>
-  <si>
-    <t>../jasmine_POM/tests/DivisionTest.js</t>
-  </si>
-  <si>
-    <t>../cucumber_POM/features/Addition.feature</t>
-  </si>
-  <si>
-    <t>../cucumber_POM/features/Subtraction.feature</t>
-  </si>
-  <si>
-    <t>../cucumber_POM/features/Multiplication.feature</t>
-  </si>
-  <si>
-    <t>../cucumber_POM/features/Division.feature</t>
-  </si>
-  <si>
-    <t>../cucumber_POM/features/Features/Login.feature</t>
-  </si>
-  <si>
-    <t>../cucumber_POM/features/Registration.feature</t>
-  </si>
-  <si>
-    <t>../cucumber_POM/features/Features/Payment.feature</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>../cucumber_POM/features/Features/ContactUS.feature</t>
-  </si>
-  <si>
-    <t>../cucumber_POM/features/Features/ViewBill.feature</t>
-  </si>
-  <si>
-    <t>../cucumber_POM/features/Features/SMR.feature</t>
-  </si>
-  <si>
-    <t>../cucumber_POM/features/Features/ASMR.feature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -129,7 +129,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,21 +560,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.42578125" style="1"/>
+    <col min="1" max="1" width="53.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -582,124 +582,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
